--- a/data/pca/factorExposure/factorExposure_2016-09-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.00539680314561021</v>
+        <v>0.01358991657474411</v>
       </c>
       <c r="C2">
-        <v>-0.05135935408251811</v>
+        <v>0.04282684993144581</v>
       </c>
       <c r="D2">
-        <v>0.02769518072028398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06645189336440614</v>
+      </c>
+      <c r="E2">
+        <v>-0.05391585524824265</v>
+      </c>
+      <c r="F2">
+        <v>0.08500787652161061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05781070352637206</v>
+        <v>0.03317741529235812</v>
       </c>
       <c r="C3">
-        <v>-0.09886635417741614</v>
+        <v>0.07952765287056993</v>
       </c>
       <c r="D3">
-        <v>0.0665337257124636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09580617594826339</v>
+      </c>
+      <c r="E3">
+        <v>-0.06570065609640992</v>
+      </c>
+      <c r="F3">
+        <v>0.01568392871204329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06110537212769877</v>
+        <v>0.05764881044847588</v>
       </c>
       <c r="C4">
-        <v>-0.0576716746277175</v>
+        <v>0.06494560376140272</v>
       </c>
       <c r="D4">
-        <v>0.02809227911970106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06221036731643766</v>
+      </c>
+      <c r="E4">
+        <v>-0.05134651798956028</v>
+      </c>
+      <c r="F4">
+        <v>0.08252158127944736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03106447512979522</v>
+        <v>0.03313627874657143</v>
       </c>
       <c r="C6">
-        <v>-0.03963296280438072</v>
+        <v>0.03557743178802889</v>
       </c>
       <c r="D6">
-        <v>0.02792935117453255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07014908220552958</v>
+      </c>
+      <c r="E6">
+        <v>-0.05979090868818181</v>
+      </c>
+      <c r="F6">
+        <v>0.07173327754343164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01620853212306689</v>
+        <v>0.01917285053123862</v>
       </c>
       <c r="C7">
-        <v>-0.04012836244796626</v>
+        <v>0.03669152944222269</v>
       </c>
       <c r="D7">
-        <v>-0.005140628483855111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03908850316701138</v>
+      </c>
+      <c r="E7">
+        <v>-0.03283894468969952</v>
+      </c>
+      <c r="F7">
+        <v>0.1071204251310209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002022997596881321</v>
+        <v>0.004229664162917427</v>
       </c>
       <c r="C8">
-        <v>-0.02154602882537244</v>
+        <v>0.02720143567779286</v>
       </c>
       <c r="D8">
-        <v>0.0301474551550335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03662044621415513</v>
+      </c>
+      <c r="E8">
+        <v>-0.04241270449435929</v>
+      </c>
+      <c r="F8">
+        <v>0.05269369505933588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03113716309745403</v>
+        <v>0.03696817667186827</v>
       </c>
       <c r="C9">
-        <v>-0.04131040304459727</v>
+        <v>0.05080637604073587</v>
       </c>
       <c r="D9">
-        <v>0.01670121177045818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04719898431313264</v>
+      </c>
+      <c r="E9">
+        <v>-0.04475409722175896</v>
+      </c>
+      <c r="F9">
+        <v>0.09040201071637455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0744848978110598</v>
+        <v>0.1020475571392661</v>
       </c>
       <c r="C10">
-        <v>0.1941596411216289</v>
+        <v>-0.1918239791205563</v>
       </c>
       <c r="D10">
-        <v>0.008494682790282612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0001220699322476488</v>
+      </c>
+      <c r="E10">
+        <v>-0.04558644312495331</v>
+      </c>
+      <c r="F10">
+        <v>0.03899001238552849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03603709391340405</v>
+        <v>0.03525706169267563</v>
       </c>
       <c r="C11">
-        <v>-0.05471818479243539</v>
+        <v>0.0510680652223712</v>
       </c>
       <c r="D11">
-        <v>0.006433829432408818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03496752201956684</v>
+      </c>
+      <c r="E11">
+        <v>-0.006161257237886399</v>
+      </c>
+      <c r="F11">
+        <v>0.06522007725087882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03398055418472979</v>
+        <v>0.03589227003638339</v>
       </c>
       <c r="C12">
-        <v>-0.0457561931200135</v>
+        <v>0.04704523847513915</v>
       </c>
       <c r="D12">
-        <v>0.003323919491707452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02645189605451129</v>
+      </c>
+      <c r="E12">
+        <v>-0.01529143133289809</v>
+      </c>
+      <c r="F12">
+        <v>0.06702300311379528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01168554659436113</v>
+        <v>0.01203741801531671</v>
       </c>
       <c r="C13">
-        <v>-0.0405576708215264</v>
+        <v>0.04056224347271239</v>
       </c>
       <c r="D13">
-        <v>0.01804173878410266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06662766314112264</v>
+      </c>
+      <c r="E13">
+        <v>-0.06518139720391132</v>
+      </c>
+      <c r="F13">
+        <v>0.113596971759484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0052397880215862</v>
+        <v>0.005463051091050474</v>
       </c>
       <c r="C14">
-        <v>-0.03253991318294038</v>
+        <v>0.02940394254161661</v>
       </c>
       <c r="D14">
-        <v>-0.01648335414816208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03084819254766659</v>
+      </c>
+      <c r="E14">
+        <v>-0.02858733825098144</v>
+      </c>
+      <c r="F14">
+        <v>0.09810919507667118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001358452759444072</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002769859850507063</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003493979964512821</v>
+      </c>
+      <c r="E15">
+        <v>-5.637247768013623e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.002461484161465907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03273931971631652</v>
+        <v>0.03282993822765264</v>
       </c>
       <c r="C16">
-        <v>-0.04293343747136022</v>
+        <v>0.04540588372320788</v>
       </c>
       <c r="D16">
-        <v>0.008726760750721176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03012427459929748</v>
+      </c>
+      <c r="E16">
+        <v>-0.02065833619703968</v>
+      </c>
+      <c r="F16">
+        <v>0.06879965160973654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02161724425336425</v>
+        <v>0.01603840019193171</v>
       </c>
       <c r="C19">
-        <v>-0.05825967738375272</v>
+        <v>0.04979290511576573</v>
       </c>
       <c r="D19">
-        <v>0.07118388470547041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1010452102093776</v>
+      </c>
+      <c r="E19">
+        <v>-0.08099895197637651</v>
+      </c>
+      <c r="F19">
+        <v>0.09180048913853718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01254955211191594</v>
+        <v>0.01349951113666429</v>
       </c>
       <c r="C20">
-        <v>-0.04408653311716601</v>
+        <v>0.03998495347200206</v>
       </c>
       <c r="D20">
-        <v>0.01831809861616432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04307744856973332</v>
+      </c>
+      <c r="E20">
+        <v>-0.05734544550569062</v>
+      </c>
+      <c r="F20">
+        <v>0.08813738342732159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008886591522050579</v>
+        <v>0.008201705020573616</v>
       </c>
       <c r="C21">
-        <v>-0.04900083351576567</v>
+        <v>0.04448850521831051</v>
       </c>
       <c r="D21">
-        <v>0.03587329160951279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07349917600376446</v>
+      </c>
+      <c r="E21">
+        <v>-0.07556746200734661</v>
+      </c>
+      <c r="F21">
+        <v>0.133751989965574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005460939352955977</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02264170642503481</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03495698450961795</v>
+      </c>
+      <c r="E22">
+        <v>-0.01767968723123539</v>
+      </c>
+      <c r="F22">
+        <v>0.01655255501228958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006131525227237701</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02277087600654221</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0346514022420886</v>
+      </c>
+      <c r="E23">
+        <v>-0.01797272218282308</v>
+      </c>
+      <c r="F23">
+        <v>0.01643244178351519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02710374949127273</v>
+        <v>0.03192566311461617</v>
       </c>
       <c r="C24">
-        <v>-0.04808503925522855</v>
+        <v>0.05300327589802201</v>
       </c>
       <c r="D24">
-        <v>0.003849119915147973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02829762058585653</v>
+      </c>
+      <c r="E24">
+        <v>-0.01815759585007503</v>
+      </c>
+      <c r="F24">
+        <v>0.07702343730086919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04167036656107088</v>
+        <v>0.04206977660099825</v>
       </c>
       <c r="C25">
-        <v>-0.05980543718415576</v>
+        <v>0.05794261634226441</v>
       </c>
       <c r="D25">
-        <v>-0.005070674756256914</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02629572816953803</v>
+      </c>
+      <c r="E25">
+        <v>-0.0134663473056706</v>
+      </c>
+      <c r="F25">
+        <v>0.07998977449179541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01227735652065669</v>
+        <v>0.01356678350226624</v>
       </c>
       <c r="C26">
-        <v>-0.01649159926238289</v>
+        <v>0.01603851580830836</v>
       </c>
       <c r="D26">
-        <v>0.0009985506557776413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02744702570671154</v>
+      </c>
+      <c r="E26">
+        <v>-0.03026318101442201</v>
+      </c>
+      <c r="F26">
+        <v>0.07345331314911942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08609817721435907</v>
+        <v>0.1370645640686011</v>
       </c>
       <c r="C28">
-        <v>0.2212391952330839</v>
+        <v>-0.2400632142977775</v>
       </c>
       <c r="D28">
-        <v>0.005241568043871924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01527064012822144</v>
+      </c>
+      <c r="E28">
+        <v>-0.0495208742627837</v>
+      </c>
+      <c r="F28">
+        <v>0.05254538399645279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.008631155367899931</v>
+        <v>0.006466601036286023</v>
       </c>
       <c r="C29">
-        <v>-0.02572402038495372</v>
+        <v>0.02538945144226789</v>
       </c>
       <c r="D29">
-        <v>-0.01558565156105768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02494057524836493</v>
+      </c>
+      <c r="E29">
+        <v>-0.03089172576850338</v>
+      </c>
+      <c r="F29">
+        <v>0.0899967021140741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0469460795877719</v>
+        <v>0.04064976843696962</v>
       </c>
       <c r="C30">
-        <v>-0.05997435975935113</v>
+        <v>0.06465457772602155</v>
       </c>
       <c r="D30">
-        <v>0.0479137391629214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1095719460581127</v>
+      </c>
+      <c r="E30">
+        <v>-0.04235129681979895</v>
+      </c>
+      <c r="F30">
+        <v>0.1013682898621949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04510360483865417</v>
+        <v>0.05432200197426983</v>
       </c>
       <c r="C31">
-        <v>-0.03350069839573606</v>
+        <v>0.05381155587628402</v>
       </c>
       <c r="D31">
-        <v>-0.01458623570128695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006222223000618483</v>
+      </c>
+      <c r="E31">
+        <v>-0.04996957071719837</v>
+      </c>
+      <c r="F31">
+        <v>0.08093085638794713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006405574939538111</v>
+        <v>0.005032055726958501</v>
       </c>
       <c r="C32">
-        <v>-0.04527253703894377</v>
+        <v>0.03238656547920188</v>
       </c>
       <c r="D32">
-        <v>0.0168031787299004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05167353146360042</v>
+      </c>
+      <c r="E32">
+        <v>-0.02477508833795209</v>
+      </c>
+      <c r="F32">
+        <v>0.07303048087445861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02541731729515658</v>
+        <v>0.02420244523302729</v>
       </c>
       <c r="C33">
-        <v>-0.05970079875683559</v>
+        <v>0.05384804107045935</v>
       </c>
       <c r="D33">
-        <v>0.030272543748792</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08447833705892251</v>
+      </c>
+      <c r="E33">
+        <v>-0.05222423043044051</v>
+      </c>
+      <c r="F33">
+        <v>0.1276365655787163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04310355873107378</v>
+        <v>0.03998207005750994</v>
       </c>
       <c r="C34">
-        <v>-0.05840675569006382</v>
+        <v>0.06354227064390081</v>
       </c>
       <c r="D34">
-        <v>-0.003761266543053044</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03535367155056762</v>
+      </c>
+      <c r="E34">
+        <v>0.005508023030538005</v>
+      </c>
+      <c r="F34">
+        <v>0.07461049813657519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008476894493151435</v>
+        <v>0.01384193166644348</v>
       </c>
       <c r="C36">
-        <v>-0.01368511959794232</v>
+        <v>0.01174592534310931</v>
       </c>
       <c r="D36">
-        <v>0.001708305754806824</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03044270869108355</v>
+      </c>
+      <c r="E36">
+        <v>-0.03708680956201425</v>
+      </c>
+      <c r="F36">
+        <v>0.08192893330970416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03049813053743074</v>
+        <v>0.02500265202630793</v>
       </c>
       <c r="C38">
-        <v>-0.02952617996941774</v>
+        <v>0.02529092674272651</v>
       </c>
       <c r="D38">
-        <v>-0.0003629948832735598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02807581660964061</v>
+      </c>
+      <c r="E38">
+        <v>-0.0360180107114459</v>
+      </c>
+      <c r="F38">
+        <v>0.06608758258502619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03869190988576792</v>
+        <v>0.03801509085778544</v>
       </c>
       <c r="C39">
-        <v>-0.07061445519124097</v>
+        <v>0.06813154601242742</v>
       </c>
       <c r="D39">
-        <v>0.02232765571236747</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05401386473819613</v>
+      </c>
+      <c r="E39">
+        <v>-0.01991028939573792</v>
+      </c>
+      <c r="F39">
+        <v>0.09057462970917687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01617784092312818</v>
+        <v>0.0169278942939125</v>
       </c>
       <c r="C40">
-        <v>-0.03046707468333833</v>
+        <v>0.03628650191463394</v>
       </c>
       <c r="D40">
-        <v>0.03519877248664309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04342240204635174</v>
+      </c>
+      <c r="E40">
+        <v>-0.07467125160644271</v>
+      </c>
+      <c r="F40">
+        <v>0.08918884484885609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.008981205040240636</v>
+        <v>0.01820309372172574</v>
       </c>
       <c r="C41">
-        <v>-0.006474628547939967</v>
+        <v>0.005802073753093165</v>
       </c>
       <c r="D41">
-        <v>0.0009631997756453267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01912728816586633</v>
+      </c>
+      <c r="E41">
+        <v>-0.03919562186008334</v>
+      </c>
+      <c r="F41">
+        <v>0.07097780951655305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.001934411662361332</v>
+        <v>0.001317060829347135</v>
       </c>
       <c r="C42">
-        <v>-0.00609614104519387</v>
+        <v>0.003269028508600065</v>
       </c>
       <c r="D42">
-        <v>0.008869263814383377</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001007131242728285</v>
+      </c>
+      <c r="E42">
+        <v>-0.008140402159529873</v>
+      </c>
+      <c r="F42">
+        <v>-0.00674715383938489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03155910251766202</v>
+        <v>0.02981343633834948</v>
       </c>
       <c r="C43">
-        <v>-0.02097081976226719</v>
+        <v>0.0207835605518684</v>
       </c>
       <c r="D43">
-        <v>0.01231063629720805</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04316360218002232</v>
+      </c>
+      <c r="E43">
+        <v>-0.045144323498041</v>
+      </c>
+      <c r="F43">
+        <v>0.08322960643458845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01562837284386003</v>
+        <v>0.01455201567992752</v>
       </c>
       <c r="C44">
-        <v>-0.05812108024963984</v>
+        <v>0.0510924472099667</v>
       </c>
       <c r="D44">
-        <v>0.01691625950210119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04230179663212696</v>
+      </c>
+      <c r="E44">
+        <v>-0.05879827283538665</v>
+      </c>
+      <c r="F44">
+        <v>0.0897536653504529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.000415399154176553</v>
+        <v>0.007336748602186631</v>
       </c>
       <c r="C46">
-        <v>-0.02290445163949163</v>
+        <v>0.02481005829342589</v>
       </c>
       <c r="D46">
-        <v>-0.01839528874141957</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01488263289765296</v>
+      </c>
+      <c r="E46">
+        <v>-0.03641652198990016</v>
+      </c>
+      <c r="F46">
+        <v>0.1036231910754664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07901462448627726</v>
+        <v>0.08555509838890195</v>
       </c>
       <c r="C47">
-        <v>-0.07113854871171482</v>
+        <v>0.08085939497048421</v>
       </c>
       <c r="D47">
-        <v>-0.005949100335666741</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01535833862463127</v>
+      </c>
+      <c r="E47">
+        <v>-0.05570564291186882</v>
+      </c>
+      <c r="F47">
+        <v>0.07819025093213486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01803924692344083</v>
+        <v>0.01595733230002173</v>
       </c>
       <c r="C48">
-        <v>-0.01170207785594601</v>
+        <v>0.01720875518182978</v>
       </c>
       <c r="D48">
-        <v>-0.005144897830362069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02039102684770736</v>
+      </c>
+      <c r="E48">
+        <v>-0.04773933227590479</v>
+      </c>
+      <c r="F48">
+        <v>0.09554870179625549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08704023784983271</v>
+        <v>0.07217254365442066</v>
       </c>
       <c r="C50">
-        <v>-0.06784987826160548</v>
+        <v>0.07032640253560779</v>
       </c>
       <c r="D50">
-        <v>-0.01518188622194181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003034253278583582</v>
+      </c>
+      <c r="E50">
+        <v>-0.05294009251289904</v>
+      </c>
+      <c r="F50">
+        <v>0.06784894333320667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.008667911450013409</v>
+        <v>0.01052583853273004</v>
       </c>
       <c r="C51">
-        <v>-0.04670821865919163</v>
+        <v>0.03266330137701285</v>
       </c>
       <c r="D51">
-        <v>0.004780250464238332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05037150522803183</v>
+      </c>
+      <c r="E51">
+        <v>-0.02215941635147973</v>
+      </c>
+      <c r="F51">
+        <v>0.08585113200708989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08242798755789635</v>
+        <v>0.09155388394752274</v>
       </c>
       <c r="C53">
-        <v>-0.07470900329281134</v>
+        <v>0.08893283080427716</v>
       </c>
       <c r="D53">
-        <v>-0.02018219541881566</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03696912361198453</v>
+      </c>
+      <c r="E53">
+        <v>-0.05529765874795755</v>
+      </c>
+      <c r="F53">
+        <v>0.08782910188683173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03013175821848219</v>
+        <v>0.02790961316022501</v>
       </c>
       <c r="C54">
-        <v>-0.01992873697161209</v>
+        <v>0.02658698970386341</v>
       </c>
       <c r="D54">
-        <v>0.0003125936606139439</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03362574916679269</v>
+      </c>
+      <c r="E54">
+        <v>-0.04178985307104811</v>
+      </c>
+      <c r="F54">
+        <v>0.09470242965938397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07146351360671063</v>
+        <v>0.08219133297500153</v>
       </c>
       <c r="C55">
-        <v>-0.0660982009762616</v>
+        <v>0.0726805389677922</v>
       </c>
       <c r="D55">
-        <v>-0.0246112341480152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04463376228003047</v>
+      </c>
+      <c r="E55">
+        <v>-0.04452582932078886</v>
+      </c>
+      <c r="F55">
+        <v>0.06337873175983792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1485925230040718</v>
+        <v>0.1438081203252806</v>
       </c>
       <c r="C56">
-        <v>-0.09283212367796223</v>
+        <v>0.1071588414177957</v>
       </c>
       <c r="D56">
-        <v>-0.02567987978247505</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04774209750102516</v>
+      </c>
+      <c r="E56">
+        <v>-0.04939429731036411</v>
+      </c>
+      <c r="F56">
+        <v>0.05009567275955569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.00128640155876142</v>
+        <v>0.0004660135288985551</v>
       </c>
       <c r="C57">
-        <v>-0.003388851885733924</v>
+        <v>0.001870244498540586</v>
       </c>
       <c r="D57">
-        <v>0.01772149499495048</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0161271828976731</v>
+      </c>
+      <c r="E57">
+        <v>-0.007651885308468847</v>
+      </c>
+      <c r="F57">
+        <v>0.01138426785940274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.06225612446769969</v>
+        <v>0.03155145155453758</v>
       </c>
       <c r="C58">
-        <v>-0.02523566698155799</v>
+        <v>0.03736267667353106</v>
       </c>
       <c r="D58">
-        <v>0.9490030999421176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4912792080897599</v>
+      </c>
+      <c r="E58">
+        <v>-0.670187791855352</v>
+      </c>
+      <c r="F58">
+        <v>-0.4771477174474071</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1363795708484644</v>
+        <v>0.1497659512961376</v>
       </c>
       <c r="C59">
-        <v>0.2055050440543943</v>
+        <v>-0.1859990709529264</v>
       </c>
       <c r="D59">
-        <v>0.02014044268586749</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03077322771118171</v>
+      </c>
+      <c r="E59">
+        <v>-0.02575287872990276</v>
+      </c>
+      <c r="F59">
+        <v>0.02081453121304444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3115802206498257</v>
+        <v>0.2808388215845881</v>
       </c>
       <c r="C60">
-        <v>-0.09032780669687682</v>
+        <v>0.09925817142010106</v>
       </c>
       <c r="D60">
-        <v>-0.004693075157276325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2003669294925369</v>
+      </c>
+      <c r="E60">
+        <v>0.281694071633474</v>
+      </c>
+      <c r="F60">
+        <v>-0.1106458701051903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03619255540968587</v>
+        <v>0.03974841549412086</v>
       </c>
       <c r="C61">
-        <v>-0.0636123938077294</v>
+        <v>0.06168417554609512</v>
       </c>
       <c r="D61">
-        <v>0.01119937278981097</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04828919176451969</v>
+      </c>
+      <c r="E61">
+        <v>-0.02385943243422598</v>
+      </c>
+      <c r="F61">
+        <v>0.08120414417306185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01304743280854119</v>
+        <v>0.01470864138559589</v>
       </c>
       <c r="C63">
-        <v>-0.03581020546054748</v>
+        <v>0.03121817830918204</v>
       </c>
       <c r="D63">
-        <v>-0.001928250071359552</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02464536190975132</v>
+      </c>
+      <c r="E63">
+        <v>-0.03922798309389989</v>
+      </c>
+      <c r="F63">
+        <v>0.07518487058661748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05147448039120568</v>
+        <v>0.0556444532594868</v>
       </c>
       <c r="C64">
-        <v>-0.03422514867587249</v>
+        <v>0.0551316437530509</v>
       </c>
       <c r="D64">
-        <v>-0.008440797798898014</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008825566387837927</v>
+      </c>
+      <c r="E64">
+        <v>-0.02426401809679192</v>
+      </c>
+      <c r="F64">
+        <v>0.08956533258661177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09043127916638447</v>
+        <v>0.0661991509931482</v>
       </c>
       <c r="C65">
-        <v>-0.04169307992475116</v>
+        <v>0.03938553508938859</v>
       </c>
       <c r="D65">
-        <v>0.04099026111457534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08741869085020404</v>
+      </c>
+      <c r="E65">
+        <v>-0.03249190737315873</v>
+      </c>
+      <c r="F65">
+        <v>0.02361648459191314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.059010193302295</v>
+        <v>0.05006892438127034</v>
       </c>
       <c r="C66">
-        <v>-0.1054779268109475</v>
+        <v>0.09114489974632084</v>
       </c>
       <c r="D66">
-        <v>0.03320385169253665</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08113597034072767</v>
+      </c>
+      <c r="E66">
+        <v>-0.02167959033654219</v>
+      </c>
+      <c r="F66">
+        <v>0.09165318506793774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05404870612386987</v>
+        <v>0.04767919188504355</v>
       </c>
       <c r="C67">
-        <v>-0.03426918973769302</v>
+        <v>0.03131068734696672</v>
       </c>
       <c r="D67">
-        <v>-0.006203706545163688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01452781213618805</v>
+      </c>
+      <c r="E67">
+        <v>-0.02012648143554585</v>
+      </c>
+      <c r="F67">
+        <v>0.05261859366063652</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1125796545009456</v>
+        <v>0.1549903957861248</v>
       </c>
       <c r="C68">
-        <v>0.287514360325796</v>
+        <v>-0.2504885364644692</v>
       </c>
       <c r="D68">
-        <v>0.001853282082825394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01908657161964988</v>
+      </c>
+      <c r="E68">
+        <v>-0.0418521042549384</v>
+      </c>
+      <c r="F68">
+        <v>0.01873940910071446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08522016597780137</v>
+        <v>0.08679291285210243</v>
       </c>
       <c r="C69">
-        <v>-0.06591022100347955</v>
+        <v>0.08652410231979553</v>
       </c>
       <c r="D69">
-        <v>-0.0313663224625351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008845406725276631</v>
+      </c>
+      <c r="E69">
+        <v>-0.03260083146435712</v>
+      </c>
+      <c r="F69">
+        <v>0.09727906693906434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1169074827146851</v>
+        <v>0.1470879990007032</v>
       </c>
       <c r="C71">
-        <v>0.2494239846884933</v>
+        <v>-0.2309659574677765</v>
       </c>
       <c r="D71">
-        <v>0.02492509950082969</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0149218928280306</v>
+      </c>
+      <c r="E71">
+        <v>-0.06069349344060553</v>
+      </c>
+      <c r="F71">
+        <v>0.05533326533653506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08358556366935345</v>
+        <v>0.09581874483240389</v>
       </c>
       <c r="C72">
-        <v>-0.04935447339848816</v>
+        <v>0.05788050619513023</v>
       </c>
       <c r="D72">
-        <v>-0.01363242883461287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02137695521960764</v>
+      </c>
+      <c r="E72">
+        <v>-0.01190507489589388</v>
+      </c>
+      <c r="F72">
+        <v>0.08243660058993973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.435198863204257</v>
+        <v>0.3454817817491917</v>
       </c>
       <c r="C73">
-        <v>-0.06736252200742664</v>
+        <v>0.08256499350129945</v>
       </c>
       <c r="D73">
-        <v>0.06098839348682383</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4221558972517558</v>
+      </c>
+      <c r="E73">
+        <v>0.4960812366595832</v>
+      </c>
+      <c r="F73">
+        <v>-0.2877145334535772</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.112594488414388</v>
+        <v>0.1100267554414288</v>
       </c>
       <c r="C74">
-        <v>-0.1129921369164073</v>
+        <v>0.1017830703602689</v>
       </c>
       <c r="D74">
-        <v>-0.00325275609769948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02753255370119902</v>
+      </c>
+      <c r="E74">
+        <v>-0.06448053532267783</v>
+      </c>
+      <c r="F74">
+        <v>0.05612935341275857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2535433634416193</v>
+        <v>0.2544867433732303</v>
       </c>
       <c r="C75">
-        <v>-0.1162168334098638</v>
+        <v>0.1414613855681911</v>
       </c>
       <c r="D75">
-        <v>-0.03544853552972226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1275115148107418</v>
+      </c>
+      <c r="E75">
+        <v>-0.07620564820156689</v>
+      </c>
+      <c r="F75">
+        <v>0.01901732699165797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1136242261400013</v>
+        <v>0.1268916435373504</v>
       </c>
       <c r="C76">
-        <v>-0.1007747880301652</v>
+        <v>0.1061766332411776</v>
       </c>
       <c r="D76">
-        <v>-0.02221806183239343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05706317508574945</v>
+      </c>
+      <c r="E76">
+        <v>-0.06971915713033795</v>
+      </c>
+      <c r="F76">
+        <v>0.06611144176324384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07736847063864671</v>
+        <v>0.06139045381687618</v>
       </c>
       <c r="C77">
-        <v>-0.05717652403474648</v>
+        <v>0.06675468571023342</v>
       </c>
       <c r="D77">
-        <v>0.04516012809712975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06528545682154845</v>
+      </c>
+      <c r="E77">
+        <v>-0.0671444855513713</v>
+      </c>
+      <c r="F77">
+        <v>0.1119814998014483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04309329599713609</v>
+        <v>0.0434598692019084</v>
       </c>
       <c r="C78">
-        <v>-0.0430506009082041</v>
+        <v>0.05387948586155577</v>
       </c>
       <c r="D78">
-        <v>0.01391915450101673</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07443800986980711</v>
+      </c>
+      <c r="E78">
+        <v>-0.02416181839552124</v>
+      </c>
+      <c r="F78">
+        <v>0.1035516417463881</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02236971298115439</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03904717346759728</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0584546208414656</v>
+      </c>
+      <c r="E79">
+        <v>-0.05012604778247193</v>
+      </c>
+      <c r="F79">
+        <v>0.03577896179649527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04588486671729148</v>
+        <v>0.03330571391145096</v>
       </c>
       <c r="C80">
-        <v>-0.05242001608268691</v>
+        <v>0.05317066261821881</v>
       </c>
       <c r="D80">
-        <v>0.03027902727002271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04875913028247076</v>
+      </c>
+      <c r="E80">
+        <v>-0.008290369537919446</v>
+      </c>
+      <c r="F80">
+        <v>0.031912709817838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1429824720552009</v>
+        <v>0.1387944386086414</v>
       </c>
       <c r="C81">
-        <v>-0.07821101758152595</v>
+        <v>0.09921609097113752</v>
       </c>
       <c r="D81">
-        <v>-0.01890663295016662</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09384286356578311</v>
+      </c>
+      <c r="E81">
+        <v>-0.08298833919323868</v>
+      </c>
+      <c r="F81">
+        <v>0.022296313864313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1214199544882468</v>
+        <v>0.1934781067231181</v>
       </c>
       <c r="C82">
-        <v>-0.06145325601449968</v>
+        <v>0.1408666647385914</v>
       </c>
       <c r="D82">
-        <v>-0.1214656555255315</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2276899786876624</v>
+      </c>
+      <c r="E82">
+        <v>-0.0166125636961042</v>
+      </c>
+      <c r="F82">
+        <v>0.08551854043879313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03063084516999231</v>
+        <v>0.02684535459558933</v>
       </c>
       <c r="C83">
-        <v>-0.01950211377138303</v>
+        <v>0.03906862042166922</v>
       </c>
       <c r="D83">
-        <v>0.01284520842309884</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03499782804555525</v>
+      </c>
+      <c r="E83">
+        <v>-0.007769795275348698</v>
+      </c>
+      <c r="F83">
+        <v>0.04834605384478902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2288647013043788</v>
+        <v>0.2038147548402676</v>
       </c>
       <c r="C85">
-        <v>-0.1140795355365297</v>
+        <v>0.1273568873389939</v>
       </c>
       <c r="D85">
-        <v>-0.08552057077141959</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1043350240403052</v>
+      </c>
+      <c r="E85">
+        <v>-0.0075998641900822</v>
+      </c>
+      <c r="F85">
+        <v>-0.02167394702566103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0006898499011556005</v>
+        <v>0.0119388766534163</v>
       </c>
       <c r="C86">
-        <v>-0.02351666787484842</v>
+        <v>0.03026560876930951</v>
       </c>
       <c r="D86">
-        <v>0.02090285284262793</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07374426442823155</v>
+      </c>
+      <c r="E86">
+        <v>-0.04479536905399189</v>
+      </c>
+      <c r="F86">
+        <v>0.1381730523781665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01627512115539216</v>
+        <v>0.02012413137108009</v>
       </c>
       <c r="C87">
-        <v>-0.01895388997537631</v>
+        <v>0.02091976040006505</v>
       </c>
       <c r="D87">
-        <v>0.09171062668985236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09367658013820823</v>
+      </c>
+      <c r="E87">
+        <v>-0.08600722271247691</v>
+      </c>
+      <c r="F87">
+        <v>0.09110629137685235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.103203184513008</v>
+        <v>0.08970890863402356</v>
       </c>
       <c r="C88">
-        <v>-0.07196673296416495</v>
+        <v>0.06459170126797566</v>
       </c>
       <c r="D88">
-        <v>-0.01117625442760605</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0121035207507455</v>
+      </c>
+      <c r="E88">
+        <v>-0.03189340506362842</v>
+      </c>
+      <c r="F88">
+        <v>0.06762634715446293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1862687960081249</v>
+        <v>0.2293875300432033</v>
       </c>
       <c r="C89">
-        <v>0.3763334045143734</v>
+        <v>-0.3787981295121287</v>
       </c>
       <c r="D89">
-        <v>-0.02436216572438392</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01440002369168638</v>
+      </c>
+      <c r="E89">
+        <v>-0.03928566174161287</v>
+      </c>
+      <c r="F89">
+        <v>0.09876723757252374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1764120322393097</v>
+        <v>0.2065212248063824</v>
       </c>
       <c r="C90">
-        <v>0.3434302781033938</v>
+        <v>-0.3129358639633446</v>
       </c>
       <c r="D90">
-        <v>-0.004857652744543099</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01379012852249991</v>
+      </c>
+      <c r="E90">
+        <v>-0.0648718418102459</v>
+      </c>
+      <c r="F90">
+        <v>0.04670341336447054</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.2011259498008756</v>
+        <v>0.1888204021413464</v>
       </c>
       <c r="C91">
-        <v>-0.1102593443370379</v>
+        <v>0.1403971783104749</v>
       </c>
       <c r="D91">
-        <v>-0.03776567101521976</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1013355866189521</v>
+      </c>
+      <c r="E91">
+        <v>-0.07363421376346466</v>
+      </c>
+      <c r="F91">
+        <v>0.04401603135393656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1693122917781732</v>
+        <v>0.186357696868414</v>
       </c>
       <c r="C92">
-        <v>0.288002080513075</v>
+        <v>-0.2783863788233859</v>
       </c>
       <c r="D92">
-        <v>-0.008139244099200502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004932564512232638</v>
+      </c>
+      <c r="E92">
+        <v>-0.0690410744288231</v>
+      </c>
+      <c r="F92">
+        <v>0.06810072064961296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.2024043917062962</v>
+        <v>0.229925164659916</v>
       </c>
       <c r="C93">
-        <v>0.3429657977986332</v>
+        <v>-0.317291014257046</v>
       </c>
       <c r="D93">
-        <v>0.006210548447158261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-5.256409307051884e-05</v>
+      </c>
+      <c r="E93">
+        <v>-0.04971514575477605</v>
+      </c>
+      <c r="F93">
+        <v>0.04096296551058645</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3266346325607037</v>
+        <v>0.33795030801501</v>
       </c>
       <c r="C94">
-        <v>-0.169046501065677</v>
+        <v>0.1956947809345102</v>
       </c>
       <c r="D94">
-        <v>-0.149828419786643</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4762364365631733</v>
+      </c>
+      <c r="E94">
+        <v>-0.1449166256605553</v>
+      </c>
+      <c r="F94">
+        <v>-0.4396386764901566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09047004787690648</v>
+        <v>0.08154586550784323</v>
       </c>
       <c r="C95">
-        <v>-0.05598055650730115</v>
+        <v>0.07121791864311738</v>
       </c>
       <c r="D95">
-        <v>0.04330911721451363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1560479831029347</v>
+      </c>
+      <c r="E95">
+        <v>0.1335775899023627</v>
+      </c>
+      <c r="F95">
+        <v>0.1720128022885834</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1951195027394694</v>
+        <v>0.1885022767382542</v>
       </c>
       <c r="C98">
-        <v>-0.01934097466338625</v>
+        <v>0.04279168632344215</v>
       </c>
       <c r="D98">
-        <v>0.04010159709197597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1730647123679286</v>
+      </c>
+      <c r="E98">
+        <v>0.1584020609043832</v>
+      </c>
+      <c r="F98">
+        <v>-0.03529051341659258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008361884687767782</v>
+        <v>0.006348218469227843</v>
       </c>
       <c r="C101">
-        <v>-0.02586317935279382</v>
+        <v>0.02514494901280116</v>
       </c>
       <c r="D101">
-        <v>-0.01582497939714828</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02427989973825958</v>
+      </c>
+      <c r="E101">
+        <v>-0.03136387320667195</v>
+      </c>
+      <c r="F101">
+        <v>0.08950688094981557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1193581529839556</v>
+        <v>0.1219396550889545</v>
       </c>
       <c r="C102">
-        <v>-0.07400401332632585</v>
+        <v>0.1013942264980461</v>
       </c>
       <c r="D102">
-        <v>-0.03505936718795086</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05090073899654954</v>
+      </c>
+      <c r="E102">
+        <v>0.007664552473821968</v>
+      </c>
+      <c r="F102">
+        <v>0.04056597496057374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
